--- a/portfolios/sml_equity/profit_reports/trend/MACD_month.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/MACD_month.xlsx
@@ -13070,22 +13070,22 @@
         <v>1040</v>
       </c>
       <c r="G240">
-        <v>1912.302525091818</v>
+        <v>1912.318557349883</v>
       </c>
       <c r="H240">
         <v>-635.7080446925703</v>
       </c>
       <c r="I240">
-        <v>0.1915292264949656</v>
+        <v>0.1915308168048039</v>
       </c>
       <c r="J240">
         <v>-0.06306601301270735</v>
       </c>
       <c r="K240">
-        <v>0.08871191823225151</v>
+        <v>0.08871286630157814</v>
       </c>
       <c r="L240">
-        <v>1185627.565556926</v>
+        <v>1185637.505556927</v>
       </c>
       <c r="M240">
         <v>-266997.3787708795</v>
@@ -13094,13 +13094,13 @@
         <v>0.5961538461538461</v>
       </c>
       <c r="O240">
-        <v>3.00814586358839</v>
+        <v>3.008171083118326</v>
       </c>
       <c r="P240">
-        <v>4.440596274820953</v>
+        <v>4.440633503650862</v>
       </c>
       <c r="Q240">
-        <v>918630.186786047</v>
+        <v>918640.1267860471</v>
       </c>
     </row>
     <row r="241" spans="1:17">
@@ -13126,34 +13126,34 @@
         <v>634.7305165244328</v>
       </c>
       <c r="H241">
-        <v>-521.0163573875413</v>
+        <v>-521.2893904395348</v>
       </c>
       <c r="I241">
         <v>0.06424848408560507</v>
       </c>
       <c r="J241">
-        <v>-0.05191308673337049</v>
+        <v>-0.05194035319897904</v>
       </c>
       <c r="K241">
-        <v>-0.02813504706908357</v>
+        <v>-0.02815673214408096</v>
       </c>
       <c r="L241">
         <v>38718.56150799042</v>
       </c>
       <c r="M241">
-        <v>-123480.8767008472</v>
+        <v>-123545.5855341697</v>
       </c>
       <c r="N241">
         <v>0.2046979865771812</v>
       </c>
       <c r="O241">
-        <v>1.218254489565495</v>
+        <v>1.217616410702792</v>
       </c>
       <c r="P241">
-        <v>0.3135591724198113</v>
+        <v>0.3133949411513519</v>
       </c>
       <c r="Q241">
-        <v>-84762.3151928568</v>
+        <v>-84827.02402617925</v>
       </c>
     </row>
   </sheetData>
